--- a/DOC/単体テスト/（TEMPLATE）EMS(EMSM)_単体テスト仕様書_経費管理.xlsx
+++ b/DOC/単体テスト/（TEMPLATE）EMS(EMSM)_単体テスト仕様書_経費管理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Softtech\src\ems\DOC\単体テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pleiades\pleiades\workspace\emsm\DOC\単体テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3236E7A-C651-4ADA-828D-CF008860191E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC3432C-A8AE-46D0-B05B-6AB70E7BD0C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8743" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -749,7 +749,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
   <si>
     <t>画面名</t>
   </si>
@@ -1075,26 +1075,58 @@
     <t>社員情報IDは採番され、
 社員情報更新画面に表示される。</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>※リグレッションテスト(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>regression testing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.00&quot;日&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.00&quot;日&quot;"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1111,7 +1143,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1137,14 +1169,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1244,6 +1276,26 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1574,7 +1626,7 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -1587,7 +1639,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1735,6 +1787,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1948,23 +2003,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2542,12 +2600,12 @@
       <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.23046875" defaultRowHeight="11.6"/>
+  <sheetFormatPr defaultColWidth="5.25" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="21" width="5.23046875" style="2"/>
-    <col min="22" max="22" width="5.23046875" style="1"/>
-    <col min="23" max="23" width="5.23046875" style="2"/>
-    <col min="24" max="16384" width="5.23046875" style="1"/>
+    <col min="1" max="21" width="5.25" style="2"/>
+    <col min="22" max="22" width="5.25" style="1"/>
+    <col min="23" max="23" width="5.25" style="2"/>
+    <col min="24" max="16384" width="5.25" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="3" customFormat="1">
@@ -2625,7 +2683,7 @@
       <c r="A13" s="8"/>
       <c r="X13" s="7"/>
     </row>
-    <row r="14" spans="1:24" s="3" customFormat="1">
+    <row r="14" spans="1:24" s="3" customFormat="1" ht="16.5">
       <c r="A14" s="8"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
@@ -2648,20 +2706,20 @@
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="55"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
       <c r="R15" s="21"/>
       <c r="X15" s="7"/>
     </row>
-    <row r="16" spans="1:24" s="3" customFormat="1" ht="21">
+    <row r="16" spans="1:24" s="3" customFormat="1" ht="30">
       <c r="A16" s="8"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
@@ -2681,7 +2739,7 @@
       <c r="R16" s="21"/>
       <c r="X16" s="7"/>
     </row>
-    <row r="17" spans="1:24" s="3" customFormat="1">
+    <row r="17" spans="1:24" s="3" customFormat="1" ht="16.5">
       <c r="A17" s="8"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
@@ -2699,65 +2757,65 @@
       <c r="R17" s="21"/>
       <c r="X17" s="7"/>
     </row>
-    <row r="18" spans="1:24" s="3" customFormat="1">
+    <row r="18" spans="1:24" s="3" customFormat="1" ht="16.5">
       <c r="A18" s="8"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
-      <c r="G18" s="56" t="s">
+      <c r="G18" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="58"/>
+      <c r="R18" s="59"/>
       <c r="X18" s="7"/>
     </row>
-    <row r="19" spans="1:24" s="3" customFormat="1">
+    <row r="19" spans="1:24" s="3" customFormat="1" ht="16.5">
       <c r="A19" s="8"/>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
-      <c r="G19" s="59" t="s">
+      <c r="G19" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="60"/>
-      <c r="P19" s="60"/>
-      <c r="Q19" s="60"/>
-      <c r="R19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="61"/>
+      <c r="R19" s="62"/>
       <c r="X19" s="7"/>
     </row>
-    <row r="20" spans="1:24" s="3" customFormat="1">
+    <row r="20" spans="1:24" s="3" customFormat="1" ht="16.5">
       <c r="A20" s="8"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="63"/>
-      <c r="O20" s="63"/>
-      <c r="P20" s="63"/>
-      <c r="Q20" s="63"/>
-      <c r="R20" s="64"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="64"/>
+      <c r="R20" s="65"/>
       <c r="X20" s="7"/>
     </row>
-    <row r="21" spans="1:24" s="3" customFormat="1">
+    <row r="21" spans="1:24" s="3" customFormat="1" ht="16.5">
       <c r="A21" s="8"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
@@ -2775,65 +2833,65 @@
       <c r="R21" s="21"/>
       <c r="X21" s="7"/>
     </row>
-    <row r="22" spans="1:24" s="3" customFormat="1" ht="13.3">
+    <row r="22" spans="1:24" s="3" customFormat="1" ht="18">
       <c r="A22" s="8"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
-      <c r="G22" s="56" t="s">
+      <c r="G22" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="65"/>
-      <c r="O22" s="65"/>
-      <c r="P22" s="65"/>
-      <c r="Q22" s="65"/>
-      <c r="R22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="66"/>
+      <c r="R22" s="67"/>
       <c r="X22" s="7"/>
     </row>
-    <row r="23" spans="1:24" s="3" customFormat="1">
+    <row r="23" spans="1:24" s="3" customFormat="1" ht="16.5">
       <c r="A23" s="8"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
-      <c r="G23" s="67" t="s">
+      <c r="G23" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="68"/>
-      <c r="L23" s="68"/>
-      <c r="M23" s="68"/>
-      <c r="N23" s="68"/>
-      <c r="O23" s="68"/>
-      <c r="P23" s="68"/>
-      <c r="Q23" s="68"/>
-      <c r="R23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="69"/>
+      <c r="O23" s="69"/>
+      <c r="P23" s="69"/>
+      <c r="Q23" s="69"/>
+      <c r="R23" s="70"/>
       <c r="X23" s="7"/>
     </row>
-    <row r="24" spans="1:24" s="3" customFormat="1">
+    <row r="24" spans="1:24" s="3" customFormat="1" ht="16.5">
       <c r="A24" s="8"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="71"/>
-      <c r="Q24" s="71"/>
-      <c r="R24" s="72"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="72"/>
+      <c r="P24" s="72"/>
+      <c r="Q24" s="72"/>
+      <c r="R24" s="73"/>
       <c r="X24" s="7"/>
     </row>
-    <row r="25" spans="1:24" s="3" customFormat="1">
+    <row r="25" spans="1:24" s="3" customFormat="1" ht="16.5">
       <c r="A25" s="8"/>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
@@ -2851,7 +2909,7 @@
       <c r="R25" s="21"/>
       <c r="X25" s="7"/>
     </row>
-    <row r="26" spans="1:24" s="3" customFormat="1" ht="13.3">
+    <row r="26" spans="1:24" s="3" customFormat="1" ht="13.5">
       <c r="A26" s="8"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -3034,7 +3092,7 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="0.78740157480314998" bottom="0.43307086614173201" header="0.39370078740157499" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" scale="95" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -3048,14 +3106,14 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.23046875" defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="3.07421875" style="14" customWidth="1"/>
-    <col min="2" max="2" width="4.4609375" style="14" customWidth="1"/>
-    <col min="3" max="3" width="58.61328125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="13.61328125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="10.61328125" style="14" customWidth="1"/>
-    <col min="6" max="16384" width="8.23046875" style="14"/>
+    <col min="1" max="1" width="3.125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="14" customWidth="1"/>
+    <col min="3" max="3" width="58.625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="14" customWidth="1"/>
+    <col min="6" max="16384" width="8.25" style="14"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
@@ -3175,32 +3233,32 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7323CA8-FF03-4FDE-8853-9CC6AB22B3BA}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:CF22"/>
+  <dimension ref="A1:CF23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="88" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9:U9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="88" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Z23" sqref="Z23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.23046875" defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="3" width="2.07421875" style="26" customWidth="1"/>
-    <col min="4" max="4" width="2.07421875" style="28" customWidth="1"/>
-    <col min="5" max="10" width="2.07421875" style="26" customWidth="1"/>
-    <col min="11" max="11" width="2.61328125" style="26" customWidth="1"/>
-    <col min="12" max="27" width="2.07421875" style="26" customWidth="1"/>
-    <col min="28" max="28" width="2.07421875" style="27" customWidth="1"/>
-    <col min="29" max="31" width="2.07421875" style="26" customWidth="1"/>
-    <col min="32" max="32" width="2.07421875" style="28" customWidth="1"/>
-    <col min="33" max="43" width="2.07421875" style="26" customWidth="1"/>
-    <col min="44" max="44" width="2.07421875" style="27" customWidth="1"/>
-    <col min="45" max="51" width="2.07421875" style="26" customWidth="1"/>
-    <col min="52" max="52" width="2.07421875" style="27" customWidth="1"/>
-    <col min="53" max="55" width="2.07421875" style="26" customWidth="1"/>
-    <col min="56" max="56" width="2.07421875" style="28" customWidth="1"/>
-    <col min="57" max="59" width="2.07421875" style="26" customWidth="1"/>
-    <col min="60" max="63" width="2.07421875" style="28" customWidth="1"/>
-    <col min="64" max="97" width="2.07421875" style="26" customWidth="1"/>
-    <col min="98" max="16384" width="8.23046875" style="26"/>
+    <col min="1" max="3" width="2.125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="2.125" style="28" customWidth="1"/>
+    <col min="5" max="10" width="2.125" style="26" customWidth="1"/>
+    <col min="11" max="11" width="2.625" style="26" customWidth="1"/>
+    <col min="12" max="27" width="2.125" style="26" customWidth="1"/>
+    <col min="28" max="28" width="2.125" style="27" customWidth="1"/>
+    <col min="29" max="31" width="2.125" style="26" customWidth="1"/>
+    <col min="32" max="32" width="2.125" style="28" customWidth="1"/>
+    <col min="33" max="43" width="2.125" style="26" customWidth="1"/>
+    <col min="44" max="44" width="2.125" style="27" customWidth="1"/>
+    <col min="45" max="51" width="2.125" style="26" customWidth="1"/>
+    <col min="52" max="52" width="2.125" style="27" customWidth="1"/>
+    <col min="53" max="55" width="2.125" style="26" customWidth="1"/>
+    <col min="56" max="56" width="2.125" style="28" customWidth="1"/>
+    <col min="57" max="59" width="2.125" style="26" customWidth="1"/>
+    <col min="60" max="63" width="2.125" style="28" customWidth="1"/>
+    <col min="64" max="97" width="2.125" style="26" customWidth="1"/>
+    <col min="98" max="16384" width="8.25" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:84" s="47" customFormat="1" ht="13.5" customHeight="1">
@@ -3275,38 +3333,38 @@
       <c r="BQ1" s="46"/>
     </row>
     <row r="2" spans="1:84" s="47" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93"/>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="94"/>
+      <c r="U2" s="94"/>
+      <c r="V2" s="94"/>
+      <c r="W2" s="94"/>
+      <c r="X2" s="94"/>
+      <c r="Y2" s="94"/>
+      <c r="Z2" s="94"/>
+      <c r="AA2" s="94"/>
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="94"/>
+      <c r="AD2" s="94"/>
       <c r="AU2" s="48"/>
       <c r="AV2" s="48"/>
       <c r="AW2" s="48"/>
@@ -3332,36 +3390,36 @@
       <c r="BQ2" s="46"/>
     </row>
     <row r="3" spans="1:84" s="47" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A3" s="92"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="93"/>
-      <c r="R3" s="93"/>
-      <c r="S3" s="93"/>
-      <c r="T3" s="93"/>
-      <c r="U3" s="93"/>
-      <c r="V3" s="93"/>
-      <c r="W3" s="93"/>
-      <c r="X3" s="93"/>
-      <c r="Y3" s="93"/>
-      <c r="Z3" s="93"/>
-      <c r="AA3" s="93"/>
-      <c r="AB3" s="93"/>
-      <c r="AC3" s="93"/>
-      <c r="AD3" s="93"/>
+      <c r="A3" s="93"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="94"/>
+      <c r="V3" s="94"/>
+      <c r="W3" s="94"/>
+      <c r="X3" s="94"/>
+      <c r="Y3" s="94"/>
+      <c r="Z3" s="94"/>
+      <c r="AA3" s="94"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="94"/>
+      <c r="AD3" s="94"/>
       <c r="AU3" s="48"/>
       <c r="AV3" s="48"/>
       <c r="AW3" s="48"/>
@@ -3387,413 +3445,413 @@
       <c r="BQ3" s="50"/>
     </row>
     <row r="4" spans="1:84" s="47" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="96"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="97"/>
       <c r="G4" s="51"/>
       <c r="H4" s="51"/>
       <c r="I4" s="51"/>
       <c r="J4" s="51"/>
-      <c r="K4" s="97" t="s">
+      <c r="K4" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98"/>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="99"/>
-      <c r="S4" s="100" t="s">
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="100"/>
+      <c r="S4" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="T4" s="101"/>
-      <c r="U4" s="101"/>
-      <c r="V4" s="101"/>
-      <c r="W4" s="101"/>
-      <c r="X4" s="102"/>
-      <c r="Y4" s="103" t="s">
+      <c r="T4" s="102"/>
+      <c r="U4" s="102"/>
+      <c r="V4" s="102"/>
+      <c r="W4" s="102"/>
+      <c r="X4" s="103"/>
+      <c r="Y4" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="Z4" s="104"/>
-      <c r="AA4" s="104"/>
-      <c r="AB4" s="104"/>
-      <c r="AC4" s="104"/>
-      <c r="AD4" s="104"/>
-      <c r="AE4" s="104"/>
-      <c r="AF4" s="104"/>
-      <c r="AG4" s="104"/>
-      <c r="AH4" s="104"/>
-      <c r="AI4" s="104"/>
-      <c r="AJ4" s="104"/>
-      <c r="AK4" s="104"/>
-      <c r="AL4" s="104"/>
-      <c r="AM4" s="104"/>
-      <c r="AN4" s="104"/>
-      <c r="AO4" s="104"/>
-      <c r="AP4" s="104"/>
-      <c r="AQ4" s="104"/>
-      <c r="AR4" s="104"/>
-      <c r="AS4" s="104"/>
-      <c r="AT4" s="104"/>
-      <c r="AU4" s="104"/>
-      <c r="AV4" s="104"/>
-      <c r="AW4" s="104"/>
-      <c r="AX4" s="104"/>
-      <c r="AY4" s="104"/>
-      <c r="AZ4" s="105"/>
-      <c r="BA4" s="73" t="s">
+      <c r="Z4" s="105"/>
+      <c r="AA4" s="105"/>
+      <c r="AB4" s="105"/>
+      <c r="AC4" s="105"/>
+      <c r="AD4" s="105"/>
+      <c r="AE4" s="105"/>
+      <c r="AF4" s="105"/>
+      <c r="AG4" s="105"/>
+      <c r="AH4" s="105"/>
+      <c r="AI4" s="105"/>
+      <c r="AJ4" s="105"/>
+      <c r="AK4" s="105"/>
+      <c r="AL4" s="105"/>
+      <c r="AM4" s="105"/>
+      <c r="AN4" s="105"/>
+      <c r="AO4" s="105"/>
+      <c r="AP4" s="105"/>
+      <c r="AQ4" s="105"/>
+      <c r="AR4" s="105"/>
+      <c r="AS4" s="105"/>
+      <c r="AT4" s="105"/>
+      <c r="AU4" s="105"/>
+      <c r="AV4" s="105"/>
+      <c r="AW4" s="105"/>
+      <c r="AX4" s="105"/>
+      <c r="AY4" s="105"/>
+      <c r="AZ4" s="106"/>
+      <c r="BA4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="BB4" s="74"/>
-      <c r="BC4" s="75"/>
-      <c r="BD4" s="76">
+      <c r="BB4" s="75"/>
+      <c r="BC4" s="76"/>
+      <c r="BD4" s="77">
         <v>44676</v>
       </c>
-      <c r="BE4" s="77"/>
-      <c r="BF4" s="77"/>
-      <c r="BG4" s="77"/>
-      <c r="BH4" s="77"/>
-      <c r="BI4" s="77"/>
-      <c r="BJ4" s="73" t="s">
+      <c r="BE4" s="78"/>
+      <c r="BF4" s="78"/>
+      <c r="BG4" s="78"/>
+      <c r="BH4" s="78"/>
+      <c r="BI4" s="78"/>
+      <c r="BJ4" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="BK4" s="74"/>
-      <c r="BL4" s="75"/>
-      <c r="BM4" s="76" t="s">
+      <c r="BK4" s="75"/>
+      <c r="BL4" s="76"/>
+      <c r="BM4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="BN4" s="77"/>
-      <c r="BO4" s="77"/>
-      <c r="BP4" s="77"/>
+      <c r="BN4" s="78"/>
+      <c r="BO4" s="78"/>
+      <c r="BP4" s="78"/>
       <c r="BQ4" s="52"/>
     </row>
     <row r="5" spans="1:84" s="47" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="80"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="81"/>
       <c r="G5" s="53"/>
       <c r="H5" s="53"/>
       <c r="I5" s="53"/>
       <c r="J5" s="53"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="78" t="s">
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="T5" s="79"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
-      <c r="W5" s="79"/>
-      <c r="X5" s="80"/>
-      <c r="Y5" s="83"/>
-      <c r="Z5" s="84"/>
-      <c r="AA5" s="84"/>
-      <c r="AB5" s="84"/>
-      <c r="AC5" s="84"/>
-      <c r="AD5" s="84"/>
-      <c r="AE5" s="84"/>
-      <c r="AF5" s="84"/>
-      <c r="AG5" s="84"/>
-      <c r="AH5" s="84"/>
-      <c r="AI5" s="84"/>
-      <c r="AJ5" s="84"/>
-      <c r="AK5" s="84"/>
-      <c r="AL5" s="84"/>
-      <c r="AM5" s="84"/>
-      <c r="AN5" s="84"/>
-      <c r="AO5" s="84"/>
-      <c r="AP5" s="84"/>
-      <c r="AQ5" s="84"/>
-      <c r="AR5" s="84"/>
-      <c r="AS5" s="84"/>
-      <c r="AT5" s="84"/>
-      <c r="AU5" s="84"/>
-      <c r="AV5" s="84"/>
-      <c r="AW5" s="84"/>
-      <c r="AX5" s="84"/>
-      <c r="AY5" s="84"/>
-      <c r="AZ5" s="85"/>
-      <c r="BA5" s="86" t="s">
+      <c r="T5" s="80"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
+      <c r="W5" s="80"/>
+      <c r="X5" s="81"/>
+      <c r="Y5" s="84"/>
+      <c r="Z5" s="85"/>
+      <c r="AA5" s="85"/>
+      <c r="AB5" s="85"/>
+      <c r="AC5" s="85"/>
+      <c r="AD5" s="85"/>
+      <c r="AE5" s="85"/>
+      <c r="AF5" s="85"/>
+      <c r="AG5" s="85"/>
+      <c r="AH5" s="85"/>
+      <c r="AI5" s="85"/>
+      <c r="AJ5" s="85"/>
+      <c r="AK5" s="85"/>
+      <c r="AL5" s="85"/>
+      <c r="AM5" s="85"/>
+      <c r="AN5" s="85"/>
+      <c r="AO5" s="85"/>
+      <c r="AP5" s="85"/>
+      <c r="AQ5" s="85"/>
+      <c r="AR5" s="85"/>
+      <c r="AS5" s="85"/>
+      <c r="AT5" s="85"/>
+      <c r="AU5" s="85"/>
+      <c r="AV5" s="85"/>
+      <c r="AW5" s="85"/>
+      <c r="AX5" s="85"/>
+      <c r="AY5" s="85"/>
+      <c r="AZ5" s="86"/>
+      <c r="BA5" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="BB5" s="87"/>
-      <c r="BC5" s="88"/>
-      <c r="BD5" s="87"/>
-      <c r="BE5" s="87"/>
-      <c r="BF5" s="87"/>
-      <c r="BG5" s="87"/>
-      <c r="BH5" s="87"/>
-      <c r="BI5" s="87"/>
-      <c r="BJ5" s="86" t="s">
+      <c r="BB5" s="88"/>
+      <c r="BC5" s="89"/>
+      <c r="BD5" s="88"/>
+      <c r="BE5" s="88"/>
+      <c r="BF5" s="88"/>
+      <c r="BG5" s="88"/>
+      <c r="BH5" s="88"/>
+      <c r="BI5" s="88"/>
+      <c r="BJ5" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="BK5" s="87"/>
-      <c r="BL5" s="88"/>
-      <c r="BM5" s="87"/>
-      <c r="BN5" s="84"/>
-      <c r="BO5" s="84"/>
-      <c r="BP5" s="84"/>
+      <c r="BK5" s="88"/>
+      <c r="BL5" s="89"/>
+      <c r="BM5" s="88"/>
+      <c r="BN5" s="85"/>
+      <c r="BO5" s="85"/>
+      <c r="BP5" s="85"/>
       <c r="BQ5" s="54"/>
     </row>
-    <row r="6" spans="1:84" ht="15" thickTop="1">
-      <c r="E6" s="126"/>
-      <c r="F6" s="127"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="127"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="127"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="127"/>
-      <c r="N6" s="127"/>
-      <c r="P6" s="126"/>
-      <c r="Q6" s="127"/>
-      <c r="R6" s="127"/>
-      <c r="S6" s="126"/>
-      <c r="T6" s="127"/>
-      <c r="U6" s="127"/>
+    <row r="6" spans="1:84" ht="19.5" thickTop="1">
+      <c r="E6" s="130"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="130"/>
+      <c r="M6" s="131"/>
+      <c r="N6" s="131"/>
+      <c r="P6" s="130"/>
+      <c r="Q6" s="131"/>
+      <c r="R6" s="131"/>
+      <c r="S6" s="130"/>
+      <c r="T6" s="131"/>
+      <c r="U6" s="131"/>
       <c r="AF6" s="26"/>
       <c r="AK6" s="29"/>
-      <c r="BL6" s="126"/>
-      <c r="BM6" s="127"/>
-      <c r="BN6" s="127"/>
-      <c r="BO6" s="126"/>
-      <c r="BP6" s="127"/>
-      <c r="BQ6" s="127"/>
+      <c r="BL6" s="130"/>
+      <c r="BM6" s="131"/>
+      <c r="BN6" s="131"/>
+      <c r="BO6" s="130"/>
+      <c r="BP6" s="131"/>
+      <c r="BQ6" s="131"/>
     </row>
     <row r="7" spans="1:84">
-      <c r="A7" s="115" t="s">
+      <c r="A7" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="117"/>
-      <c r="C7" s="115" t="s">
+      <c r="B7" s="118"/>
+      <c r="C7" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="116"/>
-      <c r="M7" s="116"/>
-      <c r="N7" s="116"/>
-      <c r="O7" s="117"/>
-      <c r="P7" s="89" t="s">
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="117"/>
+      <c r="M7" s="117"/>
+      <c r="N7" s="117"/>
+      <c r="O7" s="118"/>
+      <c r="P7" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="Q7" s="113"/>
-      <c r="R7" s="113"/>
-      <c r="S7" s="113"/>
-      <c r="T7" s="113"/>
-      <c r="U7" s="113"/>
-      <c r="V7" s="113"/>
-      <c r="W7" s="113"/>
-      <c r="X7" s="113"/>
-      <c r="Y7" s="113"/>
-      <c r="Z7" s="113"/>
-      <c r="AA7" s="113"/>
-      <c r="AB7" s="113"/>
-      <c r="AC7" s="113"/>
-      <c r="AD7" s="113"/>
-      <c r="AE7" s="113"/>
-      <c r="AF7" s="113"/>
-      <c r="AG7" s="113"/>
-      <c r="AH7" s="113"/>
-      <c r="AI7" s="113"/>
-      <c r="AJ7" s="114"/>
-      <c r="AK7" s="115" t="s">
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
+      <c r="S7" s="114"/>
+      <c r="T7" s="114"/>
+      <c r="U7" s="114"/>
+      <c r="V7" s="114"/>
+      <c r="W7" s="114"/>
+      <c r="X7" s="114"/>
+      <c r="Y7" s="114"/>
+      <c r="Z7" s="114"/>
+      <c r="AA7" s="114"/>
+      <c r="AB7" s="114"/>
+      <c r="AC7" s="114"/>
+      <c r="AD7" s="114"/>
+      <c r="AE7" s="114"/>
+      <c r="AF7" s="114"/>
+      <c r="AG7" s="114"/>
+      <c r="AH7" s="114"/>
+      <c r="AI7" s="114"/>
+      <c r="AJ7" s="115"/>
+      <c r="AK7" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="AL7" s="116"/>
-      <c r="AM7" s="117"/>
-      <c r="AN7" s="106" t="s">
+      <c r="AL7" s="117"/>
+      <c r="AM7" s="118"/>
+      <c r="AN7" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="AO7" s="107"/>
-      <c r="AP7" s="107"/>
-      <c r="AQ7" s="108"/>
-      <c r="AR7" s="109"/>
-      <c r="AS7" s="115" t="s">
+      <c r="AO7" s="108"/>
+      <c r="AP7" s="108"/>
+      <c r="AQ7" s="109"/>
+      <c r="AR7" s="110"/>
+      <c r="AS7" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="AT7" s="121"/>
-      <c r="AU7" s="121"/>
-      <c r="AV7" s="121"/>
-      <c r="AW7" s="121"/>
-      <c r="AX7" s="121"/>
-      <c r="AY7" s="121"/>
-      <c r="AZ7" s="121"/>
-      <c r="BA7" s="121"/>
-      <c r="BB7" s="121"/>
-      <c r="BC7" s="121"/>
-      <c r="BD7" s="121"/>
-      <c r="BE7" s="121"/>
-      <c r="BF7" s="122"/>
-      <c r="BG7" s="115" t="s">
+      <c r="AT7" s="122"/>
+      <c r="AU7" s="122"/>
+      <c r="AV7" s="122"/>
+      <c r="AW7" s="122"/>
+      <c r="AX7" s="122"/>
+      <c r="AY7" s="122"/>
+      <c r="AZ7" s="122"/>
+      <c r="BA7" s="122"/>
+      <c r="BB7" s="122"/>
+      <c r="BC7" s="122"/>
+      <c r="BD7" s="122"/>
+      <c r="BE7" s="122"/>
+      <c r="BF7" s="123"/>
+      <c r="BG7" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="BH7" s="121"/>
-      <c r="BI7" s="121"/>
-      <c r="BJ7" s="121"/>
-      <c r="BK7" s="121"/>
-      <c r="BL7" s="121"/>
-      <c r="BM7" s="121"/>
-      <c r="BN7" s="121"/>
-      <c r="BO7" s="121"/>
-      <c r="BP7" s="121"/>
-      <c r="BQ7" s="121"/>
-      <c r="BR7" s="121"/>
-      <c r="BS7" s="121"/>
-      <c r="BT7" s="121"/>
-      <c r="BU7" s="122"/>
-      <c r="BV7" s="106" t="s">
+      <c r="BH7" s="122"/>
+      <c r="BI7" s="122"/>
+      <c r="BJ7" s="122"/>
+      <c r="BK7" s="122"/>
+      <c r="BL7" s="122"/>
+      <c r="BM7" s="122"/>
+      <c r="BN7" s="122"/>
+      <c r="BO7" s="122"/>
+      <c r="BP7" s="122"/>
+      <c r="BQ7" s="122"/>
+      <c r="BR7" s="122"/>
+      <c r="BS7" s="122"/>
+      <c r="BT7" s="122"/>
+      <c r="BU7" s="123"/>
+      <c r="BV7" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="BW7" s="107"/>
-      <c r="BX7" s="108"/>
-      <c r="BY7" s="109"/>
-      <c r="BZ7" s="106" t="s">
+      <c r="BW7" s="108"/>
+      <c r="BX7" s="109"/>
+      <c r="BY7" s="110"/>
+      <c r="BZ7" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="CA7" s="108"/>
-      <c r="CB7" s="109"/>
-      <c r="CC7" s="106" t="s">
+      <c r="CA7" s="109"/>
+      <c r="CB7" s="110"/>
+      <c r="CC7" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="CD7" s="107"/>
-      <c r="CE7" s="108"/>
-      <c r="CF7" s="109"/>
+      <c r="CD7" s="108"/>
+      <c r="CE7" s="109"/>
+      <c r="CF7" s="110"/>
     </row>
     <row r="8" spans="1:84">
-      <c r="A8" s="118"/>
-      <c r="B8" s="120"/>
-      <c r="C8" s="118"/>
-      <c r="D8" s="119"/>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="119"/>
-      <c r="L8" s="119"/>
-      <c r="M8" s="119"/>
-      <c r="N8" s="119"/>
-      <c r="O8" s="120"/>
-      <c r="P8" s="89" t="s">
+      <c r="A8" s="119"/>
+      <c r="B8" s="121"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="120"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="121"/>
+      <c r="P8" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="Q8" s="90"/>
-      <c r="R8" s="89" t="s">
+      <c r="Q8" s="91"/>
+      <c r="R8" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="S8" s="90"/>
-      <c r="T8" s="89" t="s">
+      <c r="S8" s="91"/>
+      <c r="T8" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="U8" s="90"/>
-      <c r="V8" s="89" t="s">
+      <c r="U8" s="91"/>
+      <c r="V8" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="90"/>
-      <c r="X8" s="89" t="s">
+      <c r="W8" s="91"/>
+      <c r="X8" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="Y8" s="90"/>
-      <c r="Z8" s="89" t="s">
+      <c r="Y8" s="91"/>
+      <c r="Z8" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="AA8" s="90"/>
-      <c r="AB8" s="89" t="s">
+      <c r="AA8" s="91"/>
+      <c r="AB8" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="AC8" s="90"/>
-      <c r="AD8" s="89" t="s">
+      <c r="AC8" s="91"/>
+      <c r="AD8" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="AE8" s="91"/>
-      <c r="AF8" s="91"/>
-      <c r="AG8" s="90"/>
+      <c r="AE8" s="92"/>
+      <c r="AF8" s="92"/>
+      <c r="AG8" s="91"/>
       <c r="AH8" s="30" t="s">
         <v>26</v>
       </c>
       <c r="AI8" s="31"/>
       <c r="AJ8" s="32"/>
-      <c r="AK8" s="118"/>
-      <c r="AL8" s="119"/>
-      <c r="AM8" s="120"/>
-      <c r="AN8" s="110"/>
-      <c r="AO8" s="111"/>
-      <c r="AP8" s="111"/>
-      <c r="AQ8" s="111"/>
-      <c r="AR8" s="112"/>
-      <c r="AS8" s="123"/>
-      <c r="AT8" s="124"/>
-      <c r="AU8" s="124"/>
-      <c r="AV8" s="124"/>
-      <c r="AW8" s="124"/>
-      <c r="AX8" s="124"/>
-      <c r="AY8" s="124"/>
-      <c r="AZ8" s="124"/>
-      <c r="BA8" s="124"/>
-      <c r="BB8" s="124"/>
-      <c r="BC8" s="124"/>
-      <c r="BD8" s="124"/>
-      <c r="BE8" s="124"/>
-      <c r="BF8" s="125"/>
-      <c r="BG8" s="123"/>
-      <c r="BH8" s="124"/>
-      <c r="BI8" s="124"/>
-      <c r="BJ8" s="124"/>
-      <c r="BK8" s="124"/>
-      <c r="BL8" s="124"/>
-      <c r="BM8" s="124"/>
-      <c r="BN8" s="124"/>
-      <c r="BO8" s="124"/>
-      <c r="BP8" s="124"/>
-      <c r="BQ8" s="124"/>
-      <c r="BR8" s="124"/>
-      <c r="BS8" s="124"/>
-      <c r="BT8" s="124"/>
-      <c r="BU8" s="125"/>
-      <c r="BV8" s="110"/>
-      <c r="BW8" s="111"/>
-      <c r="BX8" s="111"/>
-      <c r="BY8" s="112"/>
-      <c r="BZ8" s="110"/>
-      <c r="CA8" s="111"/>
-      <c r="CB8" s="112"/>
-      <c r="CC8" s="110"/>
-      <c r="CD8" s="111"/>
-      <c r="CE8" s="111"/>
-      <c r="CF8" s="112"/>
+      <c r="AK8" s="119"/>
+      <c r="AL8" s="120"/>
+      <c r="AM8" s="121"/>
+      <c r="AN8" s="111"/>
+      <c r="AO8" s="112"/>
+      <c r="AP8" s="112"/>
+      <c r="AQ8" s="112"/>
+      <c r="AR8" s="113"/>
+      <c r="AS8" s="124"/>
+      <c r="AT8" s="125"/>
+      <c r="AU8" s="125"/>
+      <c r="AV8" s="125"/>
+      <c r="AW8" s="125"/>
+      <c r="AX8" s="125"/>
+      <c r="AY8" s="125"/>
+      <c r="AZ8" s="125"/>
+      <c r="BA8" s="125"/>
+      <c r="BB8" s="125"/>
+      <c r="BC8" s="125"/>
+      <c r="BD8" s="125"/>
+      <c r="BE8" s="125"/>
+      <c r="BF8" s="126"/>
+      <c r="BG8" s="124"/>
+      <c r="BH8" s="125"/>
+      <c r="BI8" s="125"/>
+      <c r="BJ8" s="125"/>
+      <c r="BK8" s="125"/>
+      <c r="BL8" s="125"/>
+      <c r="BM8" s="125"/>
+      <c r="BN8" s="125"/>
+      <c r="BO8" s="125"/>
+      <c r="BP8" s="125"/>
+      <c r="BQ8" s="125"/>
+      <c r="BR8" s="125"/>
+      <c r="BS8" s="125"/>
+      <c r="BT8" s="125"/>
+      <c r="BU8" s="126"/>
+      <c r="BV8" s="111"/>
+      <c r="BW8" s="112"/>
+      <c r="BX8" s="112"/>
+      <c r="BY8" s="113"/>
+      <c r="BZ8" s="111"/>
+      <c r="CA8" s="112"/>
+      <c r="CB8" s="113"/>
+      <c r="CC8" s="111"/>
+      <c r="CD8" s="112"/>
+      <c r="CE8" s="112"/>
+      <c r="CF8" s="113"/>
     </row>
     <row r="9" spans="1:84" ht="75" customHeight="1">
       <c r="A9" s="41">
         <v>1</v>
       </c>
       <c r="B9" s="32"/>
-      <c r="C9" s="128" t="s">
+      <c r="C9" s="55" t="s">
         <v>67</v>
       </c>
       <c r="D9" s="42"/>
@@ -3808,24 +3866,24 @@
       <c r="M9" s="31"/>
       <c r="N9" s="31"/>
       <c r="O9" s="32"/>
-      <c r="P9" s="89"/>
-      <c r="Q9" s="90"/>
-      <c r="R9" s="89"/>
-      <c r="S9" s="90"/>
-      <c r="T9" s="89"/>
-      <c r="U9" s="90"/>
-      <c r="V9" s="89"/>
-      <c r="W9" s="90"/>
-      <c r="X9" s="89"/>
-      <c r="Y9" s="90"/>
-      <c r="Z9" s="89"/>
-      <c r="AA9" s="90"/>
-      <c r="AB9" s="89"/>
-      <c r="AC9" s="90"/>
-      <c r="AD9" s="89"/>
-      <c r="AE9" s="91"/>
-      <c r="AF9" s="91"/>
-      <c r="AG9" s="90"/>
+      <c r="P9" s="90"/>
+      <c r="Q9" s="91"/>
+      <c r="R9" s="90"/>
+      <c r="S9" s="91"/>
+      <c r="T9" s="90"/>
+      <c r="U9" s="91"/>
+      <c r="V9" s="90"/>
+      <c r="W9" s="91"/>
+      <c r="X9" s="90"/>
+      <c r="Y9" s="91"/>
+      <c r="Z9" s="90"/>
+      <c r="AA9" s="91"/>
+      <c r="AB9" s="90"/>
+      <c r="AC9" s="91"/>
+      <c r="AD9" s="90"/>
+      <c r="AE9" s="92"/>
+      <c r="AF9" s="92"/>
+      <c r="AG9" s="91"/>
       <c r="AH9" s="30"/>
       <c r="AI9" s="31"/>
       <c r="AJ9" s="32"/>
@@ -3853,23 +3911,23 @@
       <c r="BD9" s="42"/>
       <c r="BE9" s="31"/>
       <c r="BF9" s="32"/>
-      <c r="BG9" s="129" t="s">
+      <c r="BG9" s="127" t="s">
         <v>68</v>
       </c>
-      <c r="BH9" s="130"/>
-      <c r="BI9" s="130"/>
-      <c r="BJ9" s="130"/>
-      <c r="BK9" s="130"/>
-      <c r="BL9" s="130"/>
-      <c r="BM9" s="130"/>
-      <c r="BN9" s="130"/>
-      <c r="BO9" s="130"/>
-      <c r="BP9" s="130"/>
-      <c r="BQ9" s="130"/>
-      <c r="BR9" s="130"/>
-      <c r="BS9" s="130"/>
-      <c r="BT9" s="130"/>
-      <c r="BU9" s="131"/>
+      <c r="BH9" s="128"/>
+      <c r="BI9" s="128"/>
+      <c r="BJ9" s="128"/>
+      <c r="BK9" s="128"/>
+      <c r="BL9" s="128"/>
+      <c r="BM9" s="128"/>
+      <c r="BN9" s="128"/>
+      <c r="BO9" s="128"/>
+      <c r="BP9" s="128"/>
+      <c r="BQ9" s="128"/>
+      <c r="BR9" s="128"/>
+      <c r="BS9" s="128"/>
+      <c r="BT9" s="128"/>
+      <c r="BU9" s="129"/>
       <c r="BV9" s="41"/>
       <c r="BW9" s="31"/>
       <c r="BX9" s="31"/>
@@ -3898,24 +3956,24 @@
       <c r="M10" s="31"/>
       <c r="N10" s="31"/>
       <c r="O10" s="32"/>
-      <c r="P10" s="89"/>
-      <c r="Q10" s="90"/>
-      <c r="R10" s="89"/>
-      <c r="S10" s="90"/>
-      <c r="T10" s="89"/>
-      <c r="U10" s="90"/>
-      <c r="V10" s="89"/>
-      <c r="W10" s="90"/>
-      <c r="X10" s="89"/>
-      <c r="Y10" s="90"/>
-      <c r="Z10" s="89"/>
-      <c r="AA10" s="90"/>
-      <c r="AB10" s="89"/>
-      <c r="AC10" s="90"/>
-      <c r="AD10" s="89"/>
-      <c r="AE10" s="91"/>
-      <c r="AF10" s="91"/>
-      <c r="AG10" s="90"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="91"/>
+      <c r="R10" s="90"/>
+      <c r="S10" s="91"/>
+      <c r="T10" s="90"/>
+      <c r="U10" s="91"/>
+      <c r="V10" s="90"/>
+      <c r="W10" s="91"/>
+      <c r="X10" s="90"/>
+      <c r="Y10" s="91"/>
+      <c r="Z10" s="90"/>
+      <c r="AA10" s="91"/>
+      <c r="AB10" s="90"/>
+      <c r="AC10" s="91"/>
+      <c r="AD10" s="90"/>
+      <c r="AE10" s="92"/>
+      <c r="AF10" s="92"/>
+      <c r="AG10" s="91"/>
       <c r="AH10" s="30"/>
       <c r="AI10" s="31"/>
       <c r="AJ10" s="32"/>
@@ -3986,24 +4044,24 @@
       <c r="M11" s="31"/>
       <c r="N11" s="31"/>
       <c r="O11" s="32"/>
-      <c r="P11" s="89"/>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="89"/>
-      <c r="S11" s="90"/>
-      <c r="T11" s="89"/>
-      <c r="U11" s="90"/>
-      <c r="V11" s="89"/>
-      <c r="W11" s="90"/>
-      <c r="X11" s="89"/>
-      <c r="Y11" s="90"/>
-      <c r="Z11" s="89"/>
-      <c r="AA11" s="90"/>
-      <c r="AB11" s="89"/>
-      <c r="AC11" s="90"/>
-      <c r="AD11" s="89"/>
-      <c r="AE11" s="91"/>
-      <c r="AF11" s="91"/>
-      <c r="AG11" s="90"/>
+      <c r="P11" s="90"/>
+      <c r="Q11" s="91"/>
+      <c r="R11" s="90"/>
+      <c r="S11" s="91"/>
+      <c r="T11" s="90"/>
+      <c r="U11" s="91"/>
+      <c r="V11" s="90"/>
+      <c r="W11" s="91"/>
+      <c r="X11" s="90"/>
+      <c r="Y11" s="91"/>
+      <c r="Z11" s="90"/>
+      <c r="AA11" s="91"/>
+      <c r="AB11" s="90"/>
+      <c r="AC11" s="91"/>
+      <c r="AD11" s="90"/>
+      <c r="AE11" s="92"/>
+      <c r="AF11" s="92"/>
+      <c r="AG11" s="91"/>
       <c r="AH11" s="30"/>
       <c r="AI11" s="31"/>
       <c r="AJ11" s="32"/>
@@ -4072,24 +4130,24 @@
       <c r="M12" s="31"/>
       <c r="N12" s="31"/>
       <c r="O12" s="32"/>
-      <c r="P12" s="89"/>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="89"/>
-      <c r="S12" s="90"/>
-      <c r="T12" s="89"/>
-      <c r="U12" s="90"/>
-      <c r="V12" s="89"/>
-      <c r="W12" s="90"/>
-      <c r="X12" s="89"/>
-      <c r="Y12" s="90"/>
-      <c r="Z12" s="89"/>
-      <c r="AA12" s="90"/>
-      <c r="AB12" s="89"/>
-      <c r="AC12" s="90"/>
-      <c r="AD12" s="89"/>
-      <c r="AE12" s="91"/>
-      <c r="AF12" s="91"/>
-      <c r="AG12" s="90"/>
+      <c r="P12" s="90"/>
+      <c r="Q12" s="91"/>
+      <c r="R12" s="90"/>
+      <c r="S12" s="91"/>
+      <c r="T12" s="90"/>
+      <c r="U12" s="91"/>
+      <c r="V12" s="90"/>
+      <c r="W12" s="91"/>
+      <c r="X12" s="90"/>
+      <c r="Y12" s="91"/>
+      <c r="Z12" s="90"/>
+      <c r="AA12" s="91"/>
+      <c r="AB12" s="90"/>
+      <c r="AC12" s="91"/>
+      <c r="AD12" s="90"/>
+      <c r="AE12" s="92"/>
+      <c r="AF12" s="92"/>
+      <c r="AG12" s="91"/>
       <c r="AH12" s="30"/>
       <c r="AI12" s="31"/>
       <c r="AJ12" s="32"/>
@@ -4158,24 +4216,24 @@
       <c r="M13" s="31"/>
       <c r="N13" s="31"/>
       <c r="O13" s="32"/>
-      <c r="P13" s="89"/>
-      <c r="Q13" s="90"/>
-      <c r="R13" s="89"/>
-      <c r="S13" s="90"/>
-      <c r="T13" s="89"/>
-      <c r="U13" s="90"/>
-      <c r="V13" s="89"/>
-      <c r="W13" s="90"/>
-      <c r="X13" s="89"/>
-      <c r="Y13" s="90"/>
-      <c r="Z13" s="89"/>
-      <c r="AA13" s="90"/>
-      <c r="AB13" s="89"/>
-      <c r="AC13" s="90"/>
-      <c r="AD13" s="89"/>
-      <c r="AE13" s="91"/>
-      <c r="AF13" s="91"/>
-      <c r="AG13" s="90"/>
+      <c r="P13" s="90"/>
+      <c r="Q13" s="91"/>
+      <c r="R13" s="90"/>
+      <c r="S13" s="91"/>
+      <c r="T13" s="90"/>
+      <c r="U13" s="91"/>
+      <c r="V13" s="90"/>
+      <c r="W13" s="91"/>
+      <c r="X13" s="90"/>
+      <c r="Y13" s="91"/>
+      <c r="Z13" s="90"/>
+      <c r="AA13" s="91"/>
+      <c r="AB13" s="90"/>
+      <c r="AC13" s="91"/>
+      <c r="AD13" s="90"/>
+      <c r="AE13" s="92"/>
+      <c r="AF13" s="92"/>
+      <c r="AG13" s="91"/>
       <c r="AH13" s="30"/>
       <c r="AI13" s="31"/>
       <c r="AJ13" s="32"/>
@@ -4244,24 +4302,24 @@
       <c r="M14" s="31"/>
       <c r="N14" s="31"/>
       <c r="O14" s="32"/>
-      <c r="P14" s="89"/>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="89"/>
-      <c r="S14" s="90"/>
-      <c r="T14" s="89"/>
-      <c r="U14" s="90"/>
-      <c r="V14" s="89"/>
-      <c r="W14" s="90"/>
-      <c r="X14" s="89"/>
-      <c r="Y14" s="90"/>
-      <c r="Z14" s="89"/>
-      <c r="AA14" s="90"/>
-      <c r="AB14" s="89"/>
-      <c r="AC14" s="90"/>
-      <c r="AD14" s="89"/>
-      <c r="AE14" s="91"/>
-      <c r="AF14" s="91"/>
-      <c r="AG14" s="90"/>
+      <c r="P14" s="90"/>
+      <c r="Q14" s="91"/>
+      <c r="R14" s="90"/>
+      <c r="S14" s="91"/>
+      <c r="T14" s="90"/>
+      <c r="U14" s="91"/>
+      <c r="V14" s="90"/>
+      <c r="W14" s="91"/>
+      <c r="X14" s="90"/>
+      <c r="Y14" s="91"/>
+      <c r="Z14" s="90"/>
+      <c r="AA14" s="91"/>
+      <c r="AB14" s="90"/>
+      <c r="AC14" s="91"/>
+      <c r="AD14" s="90"/>
+      <c r="AE14" s="92"/>
+      <c r="AF14" s="92"/>
+      <c r="AG14" s="91"/>
       <c r="AH14" s="30"/>
       <c r="AI14" s="31"/>
       <c r="AJ14" s="32"/>
@@ -4330,24 +4388,24 @@
       <c r="M15" s="31"/>
       <c r="N15" s="31"/>
       <c r="O15" s="32"/>
-      <c r="P15" s="89"/>
-      <c r="Q15" s="90"/>
-      <c r="R15" s="89"/>
-      <c r="S15" s="90"/>
-      <c r="T15" s="89"/>
-      <c r="U15" s="90"/>
-      <c r="V15" s="89"/>
-      <c r="W15" s="90"/>
-      <c r="X15" s="89"/>
-      <c r="Y15" s="90"/>
-      <c r="Z15" s="89"/>
-      <c r="AA15" s="90"/>
-      <c r="AB15" s="89"/>
-      <c r="AC15" s="90"/>
-      <c r="AD15" s="89"/>
-      <c r="AE15" s="91"/>
-      <c r="AF15" s="91"/>
-      <c r="AG15" s="90"/>
+      <c r="P15" s="90"/>
+      <c r="Q15" s="91"/>
+      <c r="R15" s="90"/>
+      <c r="S15" s="91"/>
+      <c r="T15" s="90"/>
+      <c r="U15" s="91"/>
+      <c r="V15" s="90"/>
+      <c r="W15" s="91"/>
+      <c r="X15" s="90"/>
+      <c r="Y15" s="91"/>
+      <c r="Z15" s="90"/>
+      <c r="AA15" s="91"/>
+      <c r="AB15" s="90"/>
+      <c r="AC15" s="91"/>
+      <c r="AD15" s="90"/>
+      <c r="AE15" s="92"/>
+      <c r="AF15" s="92"/>
+      <c r="AG15" s="91"/>
       <c r="AH15" s="30"/>
       <c r="AI15" s="31"/>
       <c r="AJ15" s="32"/>
@@ -4416,24 +4474,24 @@
       <c r="M16" s="31"/>
       <c r="N16" s="31"/>
       <c r="O16" s="32"/>
-      <c r="P16" s="89"/>
-      <c r="Q16" s="90"/>
-      <c r="R16" s="89"/>
-      <c r="S16" s="90"/>
-      <c r="T16" s="89"/>
-      <c r="U16" s="90"/>
-      <c r="V16" s="89"/>
-      <c r="W16" s="90"/>
-      <c r="X16" s="89"/>
-      <c r="Y16" s="90"/>
-      <c r="Z16" s="89"/>
-      <c r="AA16" s="90"/>
-      <c r="AB16" s="89"/>
-      <c r="AC16" s="90"/>
-      <c r="AD16" s="89"/>
-      <c r="AE16" s="91"/>
-      <c r="AF16" s="91"/>
-      <c r="AG16" s="90"/>
+      <c r="P16" s="90"/>
+      <c r="Q16" s="91"/>
+      <c r="R16" s="90"/>
+      <c r="S16" s="91"/>
+      <c r="T16" s="90"/>
+      <c r="U16" s="91"/>
+      <c r="V16" s="90"/>
+      <c r="W16" s="91"/>
+      <c r="X16" s="90"/>
+      <c r="Y16" s="91"/>
+      <c r="Z16" s="90"/>
+      <c r="AA16" s="91"/>
+      <c r="AB16" s="90"/>
+      <c r="AC16" s="91"/>
+      <c r="AD16" s="90"/>
+      <c r="AE16" s="92"/>
+      <c r="AF16" s="92"/>
+      <c r="AG16" s="91"/>
       <c r="AH16" s="30"/>
       <c r="AI16" s="31"/>
       <c r="AJ16" s="32"/>
@@ -4502,24 +4560,24 @@
       <c r="M17" s="31"/>
       <c r="N17" s="31"/>
       <c r="O17" s="32"/>
-      <c r="P17" s="89"/>
-      <c r="Q17" s="90"/>
-      <c r="R17" s="89"/>
-      <c r="S17" s="90"/>
-      <c r="T17" s="89"/>
-      <c r="U17" s="90"/>
-      <c r="V17" s="89"/>
-      <c r="W17" s="90"/>
-      <c r="X17" s="89"/>
-      <c r="Y17" s="90"/>
-      <c r="Z17" s="89"/>
-      <c r="AA17" s="90"/>
-      <c r="AB17" s="89"/>
-      <c r="AC17" s="90"/>
-      <c r="AD17" s="89"/>
-      <c r="AE17" s="91"/>
-      <c r="AF17" s="91"/>
-      <c r="AG17" s="90"/>
+      <c r="P17" s="90"/>
+      <c r="Q17" s="91"/>
+      <c r="R17" s="90"/>
+      <c r="S17" s="91"/>
+      <c r="T17" s="90"/>
+      <c r="U17" s="91"/>
+      <c r="V17" s="90"/>
+      <c r="W17" s="91"/>
+      <c r="X17" s="90"/>
+      <c r="Y17" s="91"/>
+      <c r="Z17" s="90"/>
+      <c r="AA17" s="91"/>
+      <c r="AB17" s="90"/>
+      <c r="AC17" s="91"/>
+      <c r="AD17" s="90"/>
+      <c r="AE17" s="92"/>
+      <c r="AF17" s="92"/>
+      <c r="AG17" s="91"/>
       <c r="AH17" s="30"/>
       <c r="AI17" s="31"/>
       <c r="AJ17" s="32"/>
@@ -4588,24 +4646,24 @@
       <c r="M18" s="31"/>
       <c r="N18" s="31"/>
       <c r="O18" s="32"/>
-      <c r="P18" s="89"/>
-      <c r="Q18" s="90"/>
-      <c r="R18" s="89"/>
-      <c r="S18" s="90"/>
-      <c r="T18" s="89"/>
-      <c r="U18" s="90"/>
-      <c r="V18" s="89"/>
-      <c r="W18" s="90"/>
-      <c r="X18" s="89"/>
-      <c r="Y18" s="90"/>
-      <c r="Z18" s="89"/>
-      <c r="AA18" s="90"/>
-      <c r="AB18" s="89"/>
-      <c r="AC18" s="90"/>
-      <c r="AD18" s="89"/>
-      <c r="AE18" s="91"/>
-      <c r="AF18" s="91"/>
-      <c r="AG18" s="90"/>
+      <c r="P18" s="90"/>
+      <c r="Q18" s="91"/>
+      <c r="R18" s="90"/>
+      <c r="S18" s="91"/>
+      <c r="T18" s="90"/>
+      <c r="U18" s="91"/>
+      <c r="V18" s="90"/>
+      <c r="W18" s="91"/>
+      <c r="X18" s="90"/>
+      <c r="Y18" s="91"/>
+      <c r="Z18" s="90"/>
+      <c r="AA18" s="91"/>
+      <c r="AB18" s="90"/>
+      <c r="AC18" s="91"/>
+      <c r="AD18" s="90"/>
+      <c r="AE18" s="92"/>
+      <c r="AF18" s="92"/>
+      <c r="AG18" s="91"/>
       <c r="AH18" s="30"/>
       <c r="AI18" s="31"/>
       <c r="AJ18" s="32"/>
@@ -4674,24 +4732,24 @@
       <c r="M19" s="31"/>
       <c r="N19" s="31"/>
       <c r="O19" s="32"/>
-      <c r="P19" s="89"/>
-      <c r="Q19" s="90"/>
-      <c r="R19" s="89"/>
-      <c r="S19" s="90"/>
-      <c r="T19" s="89"/>
-      <c r="U19" s="90"/>
-      <c r="V19" s="89"/>
-      <c r="W19" s="90"/>
-      <c r="X19" s="89"/>
-      <c r="Y19" s="90"/>
-      <c r="Z19" s="89"/>
-      <c r="AA19" s="90"/>
-      <c r="AB19" s="89"/>
-      <c r="AC19" s="90"/>
-      <c r="AD19" s="89"/>
-      <c r="AE19" s="91"/>
-      <c r="AF19" s="91"/>
-      <c r="AG19" s="90"/>
+      <c r="P19" s="90"/>
+      <c r="Q19" s="91"/>
+      <c r="R19" s="90"/>
+      <c r="S19" s="91"/>
+      <c r="T19" s="90"/>
+      <c r="U19" s="91"/>
+      <c r="V19" s="90"/>
+      <c r="W19" s="91"/>
+      <c r="X19" s="90"/>
+      <c r="Y19" s="91"/>
+      <c r="Z19" s="90"/>
+      <c r="AA19" s="91"/>
+      <c r="AB19" s="90"/>
+      <c r="AC19" s="91"/>
+      <c r="AD19" s="90"/>
+      <c r="AE19" s="92"/>
+      <c r="AF19" s="92"/>
+      <c r="AG19" s="91"/>
       <c r="AH19" s="30"/>
       <c r="AI19" s="31"/>
       <c r="AJ19" s="32"/>
@@ -4760,24 +4818,24 @@
       <c r="M20" s="31"/>
       <c r="N20" s="31"/>
       <c r="O20" s="32"/>
-      <c r="P20" s="89"/>
-      <c r="Q20" s="90"/>
-      <c r="R20" s="89"/>
-      <c r="S20" s="90"/>
-      <c r="T20" s="89"/>
-      <c r="U20" s="90"/>
-      <c r="V20" s="89"/>
-      <c r="W20" s="90"/>
-      <c r="X20" s="89"/>
-      <c r="Y20" s="90"/>
-      <c r="Z20" s="89"/>
-      <c r="AA20" s="90"/>
-      <c r="AB20" s="89"/>
-      <c r="AC20" s="90"/>
-      <c r="AD20" s="89"/>
-      <c r="AE20" s="91"/>
-      <c r="AF20" s="91"/>
-      <c r="AG20" s="90"/>
+      <c r="P20" s="90"/>
+      <c r="Q20" s="91"/>
+      <c r="R20" s="90"/>
+      <c r="S20" s="91"/>
+      <c r="T20" s="90"/>
+      <c r="U20" s="91"/>
+      <c r="V20" s="90"/>
+      <c r="W20" s="91"/>
+      <c r="X20" s="90"/>
+      <c r="Y20" s="91"/>
+      <c r="Z20" s="90"/>
+      <c r="AA20" s="91"/>
+      <c r="AB20" s="90"/>
+      <c r="AC20" s="91"/>
+      <c r="AD20" s="90"/>
+      <c r="AE20" s="92"/>
+      <c r="AF20" s="92"/>
+      <c r="AG20" s="91"/>
       <c r="AH20" s="30"/>
       <c r="AI20" s="31"/>
       <c r="AJ20" s="32"/>
@@ -4846,24 +4904,24 @@
       <c r="M21" s="31"/>
       <c r="N21" s="31"/>
       <c r="O21" s="32"/>
-      <c r="P21" s="89"/>
-      <c r="Q21" s="90"/>
-      <c r="R21" s="89"/>
-      <c r="S21" s="90"/>
-      <c r="T21" s="89"/>
-      <c r="U21" s="90"/>
-      <c r="V21" s="89"/>
-      <c r="W21" s="90"/>
-      <c r="X21" s="89"/>
-      <c r="Y21" s="90"/>
-      <c r="Z21" s="89"/>
-      <c r="AA21" s="90"/>
-      <c r="AB21" s="89"/>
-      <c r="AC21" s="90"/>
-      <c r="AD21" s="89"/>
-      <c r="AE21" s="91"/>
-      <c r="AF21" s="91"/>
-      <c r="AG21" s="90"/>
+      <c r="P21" s="90"/>
+      <c r="Q21" s="91"/>
+      <c r="R21" s="90"/>
+      <c r="S21" s="91"/>
+      <c r="T21" s="90"/>
+      <c r="U21" s="91"/>
+      <c r="V21" s="90"/>
+      <c r="W21" s="91"/>
+      <c r="X21" s="90"/>
+      <c r="Y21" s="91"/>
+      <c r="Z21" s="90"/>
+      <c r="AA21" s="91"/>
+      <c r="AB21" s="90"/>
+      <c r="AC21" s="91"/>
+      <c r="AD21" s="90"/>
+      <c r="AE21" s="92"/>
+      <c r="AF21" s="92"/>
+      <c r="AG21" s="91"/>
       <c r="AH21" s="30"/>
       <c r="AI21" s="31"/>
       <c r="AJ21" s="32"/>
@@ -4932,24 +4990,24 @@
       <c r="M22" s="31"/>
       <c r="N22" s="31"/>
       <c r="O22" s="32"/>
-      <c r="P22" s="89"/>
-      <c r="Q22" s="90"/>
-      <c r="R22" s="89"/>
-      <c r="S22" s="90"/>
-      <c r="T22" s="89"/>
-      <c r="U22" s="90"/>
-      <c r="V22" s="89"/>
-      <c r="W22" s="90"/>
-      <c r="X22" s="89"/>
-      <c r="Y22" s="90"/>
-      <c r="Z22" s="89"/>
-      <c r="AA22" s="90"/>
-      <c r="AB22" s="89"/>
-      <c r="AC22" s="90"/>
-      <c r="AD22" s="89"/>
-      <c r="AE22" s="91"/>
-      <c r="AF22" s="91"/>
-      <c r="AG22" s="90"/>
+      <c r="P22" s="90"/>
+      <c r="Q22" s="91"/>
+      <c r="R22" s="90"/>
+      <c r="S22" s="91"/>
+      <c r="T22" s="90"/>
+      <c r="U22" s="91"/>
+      <c r="V22" s="90"/>
+      <c r="W22" s="91"/>
+      <c r="X22" s="90"/>
+      <c r="Y22" s="91"/>
+      <c r="Z22" s="90"/>
+      <c r="AA22" s="91"/>
+      <c r="AB22" s="90"/>
+      <c r="AC22" s="91"/>
+      <c r="AD22" s="90"/>
+      <c r="AE22" s="92"/>
+      <c r="AF22" s="92"/>
+      <c r="AG22" s="91"/>
       <c r="AH22" s="30"/>
       <c r="AI22" s="31"/>
       <c r="AJ22" s="32"/>
@@ -5001,6 +5059,12 @@
       <c r="CD22" s="31"/>
       <c r="CE22" s="31"/>
       <c r="CF22" s="32"/>
+    </row>
+    <row r="23" spans="1:84">
+      <c r="Z23" s="133" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA23" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="154">
@@ -5168,13 +5232,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D856004E-EA91-46CF-B516-9AE2B919E329}">
   <dimension ref="A2:B57"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView showGridLines="0" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="2" spans="1:2" ht="18">
+    <row r="2" spans="1:2">
       <c r="A2" s="38" t="s">
         <v>39</v>
       </c>
@@ -5189,7 +5253,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="42.45">
+    <row r="6" spans="1:2" ht="45">
       <c r="B6" s="36" t="s">
         <v>35</v>
       </c>
@@ -5288,7 +5352,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="18">
+    <row r="39" spans="1:2">
       <c r="A39" s="38" t="s">
         <v>41</v>
       </c>
@@ -5308,7 +5372,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="22.75">
+    <row r="44" spans="1:2" ht="22.5">
       <c r="B44" s="37"/>
     </row>
     <row r="45" spans="1:2">
